--- a/programData.xlsx
+++ b/programData.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="16320" windowHeight="6435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="16725" windowHeight="5430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:N16"/>
 </workbook>
 </file>
 
@@ -44,10 +43,10 @@
     <t>Text for add to  cart</t>
   </si>
   <si>
-    <t>Text for search product In cart</t>
-  </si>
-  <si>
-    <t>Mi TV 4X 163.9 cm (65 Inches) 4K Ultra HD Android LED TV (Black)</t>
+    <t>Scroll UpTo</t>
+  </si>
+  <si>
+    <t>LG 164 cm (65 inches) 4K Ultra HD Smart IPS LED TV 65UM7290PTD (Ceramic Black) (2020 Model)</t>
   </si>
 </sst>
 </file>
@@ -432,25 +431,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +469,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,30 +490,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/programData.xlsx
+++ b/programData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="16725" windowHeight="5430" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="16725" windowHeight="5430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>USERNAME</t>
   </si>
@@ -41,12 +40,6 @@
   </si>
   <si>
     <t>Text for add to  cart</t>
-  </si>
-  <si>
-    <t>Scroll UpTo</t>
-  </si>
-  <si>
-    <t>LG 164 cm (65 inches) 4K Ultra HD Smart IPS LED TV 65UM7290PTD (Ceramic Black) (2020 Model)</t>
   </si>
 </sst>
 </file>
@@ -431,10 +424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,20 +436,14 @@
     <col min="2" max="2" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
